--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1016457.861684627</v>
+        <v>1045459.539109922</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564202</v>
+        <v>272318.5912096089</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728809</v>
+        <v>8859705.39034098</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8666043.228026358</v>
+        <v>8734754.184533872</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>61.63425920309733</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>39.49894207942157</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -823,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>9.275596830496966</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -859,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -899,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>169.3575929423588</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>278.9270494795691</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1029,7 +1031,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888687</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>104.5113366705979</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>43.95772706123071</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1297,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>54.47555601903397</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.3138620892173</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>269.513456948084</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1503,7 +1505,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1543,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.3197306044668</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>169.0167291702126</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1616,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>376.184863643924</v>
       </c>
       <c r="H14" t="n">
-        <v>311.4936872159398</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1670,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1771,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>73.31370764131945</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>118.96213358952</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1844,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>334.5817096732204</v>
+        <v>269.5134569480831</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>129.0246247964034</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>161.1486436253825</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>334.58170967322</v>
       </c>
       <c r="H20" t="n">
-        <v>311.9968678344737</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2138,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,10 +2292,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>17.72813013148757</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2318,19 +2320,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>104.5113366705979</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2415,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2482,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>83.59830597394803</v>
+        <v>139.1296354848076</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>78.43452536694527</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>175.357423789689</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2761,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2795,16 +2797,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>234.4585521898008</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>139.8939792152981</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2992,19 +2994,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
-        <v>66.14450450822213</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>219.7130816251281</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3187,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>37.83808333974849</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3229,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>33.44111686754123</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3269,16 +3271,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>344.3310636953907</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>198.7186207060049</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3317,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3424,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3466,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>29.35994366372752</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3484,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>155.2114886365804</v>
       </c>
     </row>
     <row r="38">
@@ -3503,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>104.5113366705979</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>81.91708329012083</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3709,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>156.1271626621467</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,16 +3742,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>334.5817096732201</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3791,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>219.3567277916629</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3898,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>52.10844059186255</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>37.83808333974849</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3983,13 +3985,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4028,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>141.9938626745187</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>179.7188787253435</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4068,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183529</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T45" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4138,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>132.742913886646</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>49.75696784121567</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1272.344242153658</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C2" t="n">
-        <v>1272.344242153658</v>
+        <v>412.208680427115</v>
       </c>
       <c r="D2" t="n">
-        <v>1272.344242153658</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E2" t="n">
-        <v>1272.344242153658</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F2" t="n">
-        <v>861.3583373640508</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G2" t="n">
-        <v>443.3945292622377</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H2" t="n">
-        <v>116.1998092982406</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036446</v>
@@ -4334,13 +4336,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2657.251169725878</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2481.073682040048</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2262.439015012111</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>2262.439015012111</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.344242153658</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="3">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="I4" t="n">
         <v>99.59950625323012</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>335.6874762441716</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C5" t="n">
-        <v>335.6874762441716</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="D5" t="n">
-        <v>335.6874762441716</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>335.6874762441716</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>335.6874762441716</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>335.6874762441716</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4571,46 +4573,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W5" t="n">
-        <v>1485.892406545185</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X5" t="n">
-        <v>1112.426648284105</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y5" t="n">
-        <v>722.2873163082934</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4717,13 +4719,13 @@
         <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.569858826099</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2652.747346511929</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2476.569858826099</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2476.569858826099</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2476.569858826099</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2476.569858826099</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2476.569858826099</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>2476.569858826099</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>2476.569858826099</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>207.4089578252748</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C11" t="n">
-        <v>207.4089578252748</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D11" t="n">
-        <v>207.4089578252748</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E11" t="n">
-        <v>207.4089578252748</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W11" t="n">
-        <v>1309.714918859356</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X11" t="n">
-        <v>936.2491605982757</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y11" t="n">
-        <v>546.109828622464</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5117,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
@@ -5136,19 +5138,19 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C13" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D13" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E13" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F13" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5218,31 +5220,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>393.6767897220517</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T13" t="n">
-        <v>393.6767897220517</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U13" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V13" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W13" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X13" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y13" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2310.5492509541</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C14" t="n">
-        <v>1941.586734013689</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D14" t="n">
-        <v>1583.321035406938</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E14" t="n">
-        <v>1197.532782808694</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F14" t="n">
-        <v>786.5468780190865</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="G14" t="n">
-        <v>368.5830699172734</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5276,7 +5278,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
         <v>463.9616490733127</v>
@@ -5318,10 +5320,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y14" t="n">
-        <v>2697.149091018222</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
@@ -5358,22 +5360,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5394,10 +5396,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E16" t="n">
-        <v>580.2158906240411</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F16" t="n">
-        <v>433.3259431261307</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G16" t="n">
-        <v>264.3261428644631</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H16" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>607.965212903889</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1546.94416071721</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C17" t="n">
-        <v>1546.94416071721</v>
+        <v>1122.95295430729</v>
       </c>
       <c r="D17" t="n">
-        <v>1188.678462110459</v>
+        <v>1122.95295430729</v>
       </c>
       <c r="E17" t="n">
-        <v>802.8902095122148</v>
+        <v>737.1647017090459</v>
       </c>
       <c r="F17" t="n">
-        <v>391.9043047226073</v>
+        <v>326.1787969194383</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.683332757143</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y17" t="n">
-        <v>1933.544000781331</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="18">
@@ -5589,13 +5591,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L18" t="n">
         <v>713.8062203571349</v>
@@ -5607,10 +5609,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5680,43 +5682,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T19" t="n">
-        <v>597.8010803716834</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U19" t="n">
         <v>308.6274700262513</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2311.057514205145</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C20" t="n">
-        <v>1942.094997264733</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D20" t="n">
-        <v>1583.829298657983</v>
+        <v>1188.678462110459</v>
       </c>
       <c r="E20" t="n">
-        <v>1198.041046059738</v>
+        <v>802.8902095122144</v>
       </c>
       <c r="F20" t="n">
-        <v>787.0551412701309</v>
+        <v>391.9043047226068</v>
       </c>
       <c r="G20" t="n">
-        <v>369.0913331683178</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5750,13 +5752,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5774,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>2311.057514205145</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y20" t="n">
-        <v>2311.057514205145</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>495.9333588715792</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>495.9333588715792</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>495.9333588715792</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
         <v>53.94298182036445</v>
@@ -5938,22 +5940,22 @@
         <v>513.8405610245969</v>
       </c>
       <c r="T22" t="n">
-        <v>495.9333588715792</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U22" t="n">
-        <v>495.9333588715792</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V22" t="n">
-        <v>495.9333588715792</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W22" t="n">
-        <v>495.9333588715792</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>495.9333588715792</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>495.9333588715792</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>159.5099885583422</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C23" t="n">
-        <v>53.94298182036445</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D23" t="n">
-        <v>53.94298182036445</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E23" t="n">
-        <v>53.94298182036445</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -5993,7 +5995,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6011,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>936.2491605982757</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>546.109828622464</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6069,16 +6071,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
         <v>2188.831293537797</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>138.3857151273827</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C25" t="n">
-        <v>138.3857151273827</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="D25" t="n">
-        <v>138.3857151273827</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="E25" t="n">
-        <v>138.3857151273827</v>
+        <v>352.2263397260238</v>
       </c>
       <c r="F25" t="n">
-        <v>138.3857151273827</v>
+        <v>352.2263397260238</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H25" t="n">
         <v>53.94298182036445</v>
@@ -6169,28 +6171,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>138.3857151273827</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y25" t="n">
-        <v>138.3857151273827</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>840.8693068625894</v>
+        <v>962.1194880117298</v>
       </c>
       <c r="C26" t="n">
-        <v>471.9067899221776</v>
+        <v>962.1194880117298</v>
       </c>
       <c r="D26" t="n">
-        <v>471.9067899221776</v>
+        <v>962.1194880117298</v>
       </c>
       <c r="E26" t="n">
-        <v>471.9067899221776</v>
+        <v>962.1194880117298</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>551.1335832221223</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>133.1697751203092</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6227,7 +6229,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
         <v>881.2824271224076</v>
@@ -6251,25 +6253,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2520.971603332393</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V26" t="n">
-        <v>2343.842892433717</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W26" t="n">
-        <v>1991.074237163603</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X26" t="n">
-        <v>1617.608478902523</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y26" t="n">
-        <v>1227.469146926711</v>
+        <v>1348.719328075852</v>
       </c>
     </row>
     <row r="27">
@@ -6303,16 +6305,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6409,25 +6411,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W28" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>210.7222632714563</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>781.1711973675267</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C29" t="n">
-        <v>412.2086804271149</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D29" t="n">
-        <v>53.94298182036445</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E29" t="n">
-        <v>53.94298182036445</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036445</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036445</v>
@@ -6461,13 +6463,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6488,25 +6490,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2284.144782938654</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2284.144782938654</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>1931.37612766854</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X29" t="n">
-        <v>1557.91036940746</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y29" t="n">
-        <v>1167.771037431648</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
@@ -6561,22 +6563,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2191.96288889382</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="C31" t="n">
-        <v>2191.96288889382</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="D31" t="n">
-        <v>2191.96288889382</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="E31" t="n">
-        <v>2191.96288889382</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="F31" t="n">
-        <v>2191.96288889382</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2667.732171871844</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R31" t="n">
-        <v>2600.919541055458</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S31" t="n">
-        <v>2600.919541055458</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T31" t="n">
-        <v>2373.61135372406</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U31" t="n">
-        <v>2373.61135372406</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="V31" t="n">
-        <v>2373.61135372406</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="W31" t="n">
-        <v>2373.61135372406</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="X31" t="n">
-        <v>2373.61135372406</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="Y31" t="n">
-        <v>2373.61135372406</v>
+        <v>195.2500315327868</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1971.274048960885</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C32" t="n">
-        <v>1971.274048960885</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D32" t="n">
-        <v>1749.341643278937</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E32" t="n">
-        <v>1363.553390680693</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F32" t="n">
-        <v>952.5674858910851</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
@@ -6701,10 +6703,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6725,25 +6727,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>1971.274048960885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>1971.274048960885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X32" t="n">
-        <v>1971.274048960885</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y32" t="n">
-        <v>1971.274048960885</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="33">
@@ -6777,16 +6779,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2697.149091018222</v>
+        <v>664.9331591332468</v>
       </c>
       <c r="C34" t="n">
-        <v>2528.212908090316</v>
+        <v>664.9331591332468</v>
       </c>
       <c r="D34" t="n">
-        <v>2378.09626867798</v>
+        <v>664.9331591332468</v>
       </c>
       <c r="E34" t="n">
-        <v>2230.183175095587</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="F34" t="n">
-        <v>2191.96288889382</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>664.9331591332468</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>664.9331591332468</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>664.9331591332468</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>664.9331591332468</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>664.9331591332468</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018222</v>
+        <v>664.9331591332468</v>
       </c>
       <c r="X34" t="n">
-        <v>2697.149091018222</v>
+        <v>664.9331591332468</v>
       </c>
       <c r="Y34" t="n">
-        <v>2697.149091018222</v>
+        <v>664.9331591332468</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1034.617283051399</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C35" t="n">
-        <v>665.6547661109871</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D35" t="n">
-        <v>665.6547661109871</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E35" t="n">
-        <v>665.6547661109871</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F35" t="n">
-        <v>254.6688613213796</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036445</v>
@@ -6935,13 +6937,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6965,22 +6967,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2147.451536646714</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>1794.6828813766</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>1421.217123115521</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y35" t="n">
-        <v>1421.217123115521</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="36">
@@ -7032,7 +7034,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7069,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2489.929004554789</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C37" t="n">
-        <v>2320.992821626882</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D37" t="n">
-        <v>2170.876182214546</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E37" t="n">
         <v>2022.963088632153</v>
@@ -7114,31 +7116,31 @@
         <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>2667.732171871844</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>2519.585513306029</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S37" t="n">
-        <v>2489.929004554789</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T37" t="n">
-        <v>2489.929004554789</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U37" t="n">
-        <v>2489.929004554789</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V37" t="n">
-        <v>2489.929004554789</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W37" t="n">
-        <v>2489.929004554789</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X37" t="n">
-        <v>2489.929004554789</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="Y37" t="n">
-        <v>2489.929004554789</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>159.5099885583422</v>
+        <v>2036.885894456657</v>
       </c>
       <c r="C38" t="n">
-        <v>53.94298182036445</v>
+        <v>2036.885894456657</v>
       </c>
       <c r="D38" t="n">
-        <v>53.94298182036445</v>
+        <v>1678.620195849906</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036445</v>
+        <v>1292.831943251662</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>881.8460384620544</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>463.8822303602412</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>136.6875103962441</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7199,25 +7201,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.48357412947</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.714918859356</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X38" t="n">
-        <v>936.2491605982757</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y38" t="n">
-        <v>546.109828622464</v>
+        <v>2423.485734520778</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7251,43 +7253,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>2539.444886308983</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>2312.136698977585</v>
       </c>
       <c r="U40" t="n">
-        <v>598.0446400632119</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V40" t="n">
-        <v>343.360151857325</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.944160717209</v>
+        <v>422.9054987607761</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.982837814967</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D41" t="n">
-        <v>850.7171392082162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E41" t="n">
-        <v>464.928886609972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F41" t="n">
         <v>53.94298182036445</v>
@@ -7409,13 +7411,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7439,22 +7441,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2256.941971675474</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>1925.879084331904</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>1573.11042906179</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>1199.64467080071</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7490,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="C43" t="n">
-        <v>728.1289842064342</v>
+        <v>2528.212908090316</v>
       </c>
       <c r="D43" t="n">
-        <v>675.4941957298054</v>
+        <v>2378.09626867798</v>
       </c>
       <c r="E43" t="n">
-        <v>527.5811021474123</v>
+        <v>2230.183175095587</v>
       </c>
       <c r="F43" t="n">
-        <v>380.6911546495019</v>
+        <v>2230.183175095587</v>
       </c>
       <c r="G43" t="n">
-        <v>211.6913543878343</v>
+        <v>2061.183374833919</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K43" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1192.157102157134</v>
+        <v>2015.081949825207</v>
       </c>
       <c r="C44" t="n">
-        <v>823.1945852167225</v>
+        <v>1646.119432884795</v>
       </c>
       <c r="D44" t="n">
-        <v>464.928886609972</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036445</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J44" t="n">
-        <v>169.710838053314</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280443</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O44" t="n">
-        <v>2238.843319642689</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T44" t="n">
-        <v>2553.720946902547</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U44" t="n">
-        <v>2299.959161540638</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="V44" t="n">
-        <v>1968.896274197068</v>
+        <v>3518.055535396335</v>
       </c>
       <c r="W44" t="n">
-        <v>1968.896274197068</v>
+        <v>3165.28688012622</v>
       </c>
       <c r="X44" t="n">
-        <v>1968.896274197068</v>
+        <v>2791.82112186514</v>
       </c>
       <c r="Y44" t="n">
-        <v>1578.756942221256</v>
+        <v>2401.681789889329</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>220.8126299914995</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>192.6510469835159</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641994</v>
+        <v>522.0794512893252</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598713</v>
+        <v>1026.440991155443</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1253.562877620961</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U45" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>671.4854326121931</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>671.4854326121931</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>537.4016812115406</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>389.4885876291474</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866326</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>359.872719623048</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>565.1423203422855</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>770.9656851783894</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>945.0605805669879</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S46" t="n">
-        <v>513.8405610245969</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T46" t="n">
-        <v>513.8405610245969</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U46" t="n">
-        <v>513.8405610245969</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V46" t="n">
-        <v>513.8405610245969</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="W46" t="n">
-        <v>513.8405610245969</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="X46" t="n">
-        <v>285.8510101265796</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="Y46" t="n">
-        <v>235.5914466506042</v>
+        <v>853.1338974424328</v>
       </c>
     </row>
   </sheetData>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992664</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8784,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9255,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9729,7 +9731,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9951,19 +9953,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10680,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10841,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11069,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617264079</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>90.29705704176392</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>14.97946049539013</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22601,7 +22603,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22711,19 +22713,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.6900249618413</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22747,16 +22749,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -22787,22 +22789,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>185.3254486783241</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>44.99572328478808</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>260.7615551004096</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>10.52067551358098</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23185,22 +23187,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229438</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.41997957426332</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>85.16958467259894</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
@@ -23276,7 +23278,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23431,13 +23433,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>56.8258083455521</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787166</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23504,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>37.59930637687103</v>
       </c>
       <c r="H14" t="n">
-        <v>12.42908554841733</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23558,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>82.85718120047569</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>27.70305839063784</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
@@ -23732,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>79.20246034757463</v>
+        <v>144.2707130727119</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23777,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23908,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23941,10 +23943,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>96.01048066168084</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>125.1332306165952</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23981,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>79.20246034757503</v>
       </c>
       <c r="H20" t="n">
-        <v>11.92590492988342</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24026,16 +24028,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24133,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,13 +24144,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24178,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>207.3069753265967</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24206,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>260.7615551004096</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24370,22 +24372,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>83.71149628510288</v>
+        <v>28.18016677424336</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,16 +24408,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,13 +24454,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>245.4882473974119</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>152.3948346804459</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.62049154535643</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24619,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,28 +24645,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>21.87414536972213</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24683,16 +24685,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>16.76561531848847</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>27.41582304375279</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>80.52068747193573</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>134.9699599955549</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25075,28 +25077,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>107.5829646831828</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>113.2240751126166</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25157,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>37.59930637687108</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>215.06554931479</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25312,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,13 +25356,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>182.7855952862914</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
@@ -25372,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551443</v>
       </c>
     </row>
     <row r="38">
@@ -25391,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>260.7615551004096</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>70.01423295474042</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25567,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,25 +25593,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>56.0183762878722</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25628,16 +25630,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
@@ -25673,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>31.86743971662639</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25786,28 +25788,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>96.50703242634981</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>118.3328055020467</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T44" t="n">
-        <v>74.45445768313914</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>148.0333797447914</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26026,25 +26028,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>15.87255913156633</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26086,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>168.8276855108791</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>749455.2536452995</v>
+        <v>749455.2536452996</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>749455.2536452995</v>
+        <v>749455.2536452996</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>749455.2536452994</v>
+        <v>749455.2536452995</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>749455.2536452995</v>
+        <v>749455.2536452996</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>749455.2536452996</v>
+        <v>868440.3987216185</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="C2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="D2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="E2" t="n">
+        <v>289152.6100157577</v>
+      </c>
+      <c r="F2" t="n">
         <v>289152.6100157576</v>
       </c>
-      <c r="E2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="F2" t="n">
-        <v>289152.6100157577</v>
-      </c>
       <c r="G2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157573</v>
       </c>
       <c r="H2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="I2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="J2" t="n">
         <v>289152.6100157574</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="L2" t="n">
+        <v>289152.6100157577</v>
+      </c>
+      <c r="M2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="N2" t="n">
         <v>289152.6100157573</v>
-      </c>
-      <c r="K2" t="n">
-        <v>289152.6100157577</v>
-      </c>
-      <c r="L2" t="n">
-        <v>289152.6100157575</v>
-      </c>
-      <c r="M2" t="n">
-        <v>289152.6100157575</v>
-      </c>
-      <c r="N2" t="n">
-        <v>289152.6100157576</v>
       </c>
       <c r="O2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="P2" t="n">
-        <v>289152.6100157576</v>
+        <v>337735.6556933235</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>202824.0593593175</v>
       </c>
     </row>
     <row r="4">
@@ -26457,7 +26459,7 @@
         <v>27086.83710496504</v>
       </c>
       <c r="P4" t="n">
-        <v>27086.83710496504</v>
+        <v>24740.78594361633</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26472,19 @@
         <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340947</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
-      <c r="D5" t="n">
-        <v>82859.07806340947</v>
-      </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
@@ -26509,7 +26511,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>69171.54328360136</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-410761.1843671615</v>
+        <v>-410761.1843671616</v>
       </c>
       <c r="C6" t="n">
         <v>179206.6948473831</v>
       </c>
       <c r="D6" t="n">
-        <v>179206.6948473831</v>
+        <v>179206.694847383</v>
       </c>
       <c r="E6" t="n">
-        <v>212834.294847383</v>
+        <v>212834.2948473832</v>
       </c>
       <c r="F6" t="n">
-        <v>212834.2948473832</v>
+        <v>212834.2948473831</v>
       </c>
       <c r="G6" t="n">
-        <v>212834.294847383</v>
+        <v>212834.2948473828</v>
       </c>
       <c r="H6" t="n">
         <v>212834.294847383</v>
       </c>
       <c r="I6" t="n">
-        <v>212834.2948473829</v>
+        <v>212834.2948473831</v>
       </c>
       <c r="J6" t="n">
-        <v>36411.07565478985</v>
+        <v>36411.07565478995</v>
       </c>
       <c r="K6" t="n">
+        <v>212834.294847383</v>
+      </c>
+      <c r="L6" t="n">
         <v>212834.2948473832</v>
-      </c>
-      <c r="L6" t="n">
-        <v>212834.294847383</v>
       </c>
       <c r="M6" t="n">
         <v>212834.294847383</v>
       </c>
       <c r="N6" t="n">
+        <v>212834.2948473828</v>
+      </c>
+      <c r="O6" t="n">
         <v>212834.294847383</v>
       </c>
-      <c r="O6" t="n">
-        <v>212834.2948473831</v>
-      </c>
       <c r="P6" t="n">
-        <v>212834.2948473831</v>
+        <v>40999.26710678831</v>
       </c>
     </row>
   </sheetData>
@@ -26747,7 +26749,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26777,7 +26779,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380636</v>
       </c>
     </row>
     <row r="4">
@@ -26790,19 +26792,19 @@
         <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="E4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
@@ -26829,7 +26831,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>924.8974390827563</v>
       </c>
     </row>
   </sheetData>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>215.732436120977</v>
       </c>
     </row>
     <row r="4">
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>250.6101663282006</v>
       </c>
     </row>
   </sheetData>
@@ -31993,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32224,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32248,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32336,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32421,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32461,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32485,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32573,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32658,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32698,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32722,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32810,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32895,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32959,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33047,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33132,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33196,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33284,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33369,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33409,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33433,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33521,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33606,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33670,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33758,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33907,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33995,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34232,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055152</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>91.97984867651539</v>
       </c>
       <c r="J44" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>376.5024309712522</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335966</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822509</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044137</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358595</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>43.9508244118283</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842446</v>
       </c>
       <c r="N45" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900645</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>243.7619099671568</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>79.25705355080784</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784621</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308304</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.0839824670289713</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>9.515075838206993</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784123</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490361</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L46" t="n">
-        <v>101.2724571246924</v>
+        <v>159.109969588995</v>
       </c>
       <c r="M46" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676923</v>
       </c>
       <c r="N46" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>151.2683017714134</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>89.6148911510476</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937806</v>
       </c>
       <c r="S46" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522783</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.05837469839390796</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35504,10 +35506,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35735,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35975,13 +35977,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36133,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36206,19 +36208,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N21" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36370,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36449,7 +36451,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
@@ -36516,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36607,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
@@ -36753,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36844,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36923,13 +36925,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37081,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37157,10 +37159,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37318,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37397,13 +37399,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37555,13 +37557,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37634,13 +37636,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37789,13 +37791,13 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37871,13 +37873,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181308</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>558.3972305517154</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>638.0987989730412</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>633.6441091513592</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233096</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>119.8578301584802</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624596</v>
+        <v>332.755963945262</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>229.4160469348671</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>200.6633754067311</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L46" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M46" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295329</v>
       </c>
       <c r="N46" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854531</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3.452847899353216</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
